--- a/fileGenerated/export_projets_2021 IDF ( Nouveau).xlsx
+++ b/fileGenerated/export_projets_2021 IDF ( Nouveau).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\fileGenerated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DDADB6-2ABB-4737-B2BF-079E66FB3BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17830382-4268-448F-A865-F416427A3C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1941,16 +1941,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>44341</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>44341</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>44279</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>44271</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>44271</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>44061</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>44239</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>44176</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>44161</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>66</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>44195</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>44173</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>44159</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>44130</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>44123</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>44117</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>44111</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>66</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>44047</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>44048</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>44048</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>44123</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>66</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>66</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>66</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>66</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>43612</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>15</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>43572</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>15</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>66</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>19</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>43796</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>19</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>43796</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>19</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>15</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>15</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>15</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>19</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>43734</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>43703</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>43536</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>19</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>19</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>19</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>43193</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>15</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>43564</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>15</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>19</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>15</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>15</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>19</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>43536</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>19</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>44326</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>15</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>43469</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>15</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>15</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>19</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>19</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>43382</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>15</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>43383</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>15</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>43363</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>19</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>43360</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>15</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>43360</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>15</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>43360</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>19</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>15</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>15</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>15</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>43341</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>19</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>15</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>43339</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>15</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>15</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>15</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>43297</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>15</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>19</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>15</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>15</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>43279</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>9</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>19</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>19</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>15</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>43248</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>9</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>43257</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>43263</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>9</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>43248</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>66</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>66</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>19</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>66</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>43241</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>43227</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>15</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>43215</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>9</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>43195</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>9</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>43189</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>66</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>9</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>43154</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>19</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>43146</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>15</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>43152</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>43152</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>19</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>43152</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>15</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>43157</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>15</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>19</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>19</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>43153</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>15</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>15</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>19</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>15</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>19</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>43123</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>19</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>19</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>43117</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>15</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>43111</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>15</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>19</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>43104</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>19</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>19</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>43080</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>19</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>43082</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>19</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>15</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>19</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>43074</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>19</v>
       </c>
@@ -11031,11 +11031,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I320" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Sebastien GELSI"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:I245">
       <sortCondition ref="D1:D320"/>
     </sortState>
